--- a/docs/StructureDefinition-Ocupacion.xlsx
+++ b/docs/StructureDefinition-Ocupacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T11:42:08-04:00</t>
+    <t>2023-08-10T15:46:58-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Ocupacion.xlsx
+++ b/docs/StructureDefinition-Ocupacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:46:58-04:00</t>
+    <t>2023-09-04T11:09:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2106,19 +2110,19 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>39</v>
@@ -2129,10 +2133,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2143,7 +2147,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -2152,19 +2156,19 @@
         <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2214,13 +2218,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -2249,10 +2253,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2263,7 +2267,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>39</v>
@@ -2272,16 +2276,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2332,19 +2336,19 @@
         <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -2367,10 +2371,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2381,28 +2385,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2452,19 +2456,19 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -2487,10 +2491,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2501,7 +2505,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -2513,16 +2517,16 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2548,13 +2552,13 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>39</v>
@@ -2572,19 +2576,19 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -2607,21 +2611,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -2633,16 +2637,16 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2692,19 +2696,19 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2716,7 +2720,7 @@
         <v>39</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>39</v>
@@ -2727,14 +2731,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2753,16 +2757,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2812,7 +2816,7 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -2836,7 +2840,7 @@
         <v>39</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>39</v>
@@ -2847,14 +2851,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2873,16 +2877,16 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2932,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -2944,7 +2948,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2956,7 +2960,7 @@
         <v>39</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>39</v>
@@ -2967,14 +2971,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2987,25 +2991,25 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>39</v>
@@ -3054,7 +3058,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -3066,7 +3070,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -3078,7 +3082,7 @@
         <v>39</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>39</v>
@@ -3089,10 +3093,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3112,20 +3116,20 @@
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>39</v>
@@ -3174,7 +3178,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -3186,22 +3190,22 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>39</v>
@@ -3209,14 +3213,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3232,20 +3236,20 @@
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>39</v>
@@ -3294,7 +3298,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -3306,19 +3310,19 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>39</v>
@@ -3329,14 +3333,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3352,19 +3356,19 @@
         <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3414,7 +3418,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3426,19 +3430,19 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>39</v>
@@ -3449,10 +3453,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3460,34 +3464,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>39</v>
@@ -3512,13 +3516,13 @@
         <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>39</v>
@@ -3536,34 +3540,34 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>39</v>
@@ -3571,10 +3575,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3588,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>39</v>
@@ -3597,19 +3601,19 @@
         <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>39</v>
@@ -3634,11 +3638,11 @@
         <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>39</v>
@@ -3656,7 +3660,7 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -3668,7 +3672,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -3680,10 +3684,10 @@
         <v>39</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>39</v>
@@ -3691,10 +3695,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3705,7 +3709,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
@@ -3717,13 +3721,13 @@
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3774,13 +3778,13 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
@@ -3798,7 +3802,7 @@
         <v>39</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>39</v>
@@ -3809,14 +3813,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3835,16 +3839,16 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3882,19 +3886,19 @@
         <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3906,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3918,7 +3922,7 @@
         <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>39</v>
@@ -3929,10 +3933,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3940,34 +3944,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>39</v>
@@ -4016,7 +4020,7 @@
         <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -4028,7 +4032,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -4037,10 +4041,10 @@
         <v>39</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>39</v>
@@ -4051,10 +4055,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4065,7 +4069,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>39</v>
@@ -4077,13 +4081,13 @@
         <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4134,13 +4138,13 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>39</v>
@@ -4158,7 +4162,7 @@
         <v>39</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>39</v>
@@ -4169,14 +4173,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4195,16 +4199,16 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4242,19 +4246,19 @@
         <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -4266,7 +4270,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -4278,7 +4282,7 @@
         <v>39</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>39</v>
@@ -4289,10 +4293,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4303,31 +4307,31 @@
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>39</v>
@@ -4376,19 +4380,19 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -4397,10 +4401,10 @@
         <v>39</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>39</v>
@@ -4411,10 +4415,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4425,7 +4429,7 @@
         <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
@@ -4434,19 +4438,19 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4496,19 +4500,19 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -4517,10 +4521,10 @@
         <v>39</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4531,10 +4535,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4542,32 +4546,32 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>39</v>
@@ -4577,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>39</v>
@@ -4616,19 +4620,19 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -4637,10 +4641,10 @@
         <v>39</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -4651,10 +4655,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4662,32 +4666,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>39</v>
@@ -4736,19 +4740,19 @@
         <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -4757,10 +4761,10 @@
         <v>39</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>39</v>
@@ -4771,10 +4775,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4785,7 +4789,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>39</v>
@@ -4794,22 +4798,22 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>39</v>
@@ -4858,19 +4862,19 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -4879,10 +4883,10 @@
         <v>39</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>39</v>
@@ -4893,10 +4897,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4907,7 +4911,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -4916,22 +4920,22 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>39</v>
@@ -4980,19 +4984,19 @@
         <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -5001,10 +5005,10 @@
         <v>39</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>39</v>
@@ -5015,21 +5019,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -5038,22 +5042,22 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>39</v>
@@ -5078,13 +5082,13 @@
         <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>39</v>
@@ -5102,45 +5106,45 @@
         <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5151,7 +5155,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
@@ -5160,22 +5164,22 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>39</v>
@@ -5224,34 +5228,34 @@
         <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>39</v>
@@ -5259,10 +5263,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5282,19 +5286,19 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5344,7 +5348,7 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -5356,7 +5360,7 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -5365,13 +5369,13 @@
         <v>39</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>39</v>
@@ -5379,21 +5383,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
@@ -5402,22 +5406,22 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>39</v>
@@ -5466,34 +5470,34 @@
         <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>39</v>
@@ -5501,21 +5505,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>39</v>
@@ -5524,22 +5528,22 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>39</v>
@@ -5576,44 +5580,44 @@
         <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>39</v>
@@ -5621,47 +5625,47 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>39</v>
@@ -5710,34 +5714,34 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>39</v>
@@ -5745,10 +5749,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5759,7 +5763,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -5771,13 +5775,13 @@
         <v>39</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5828,13 +5832,13 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>39</v>
@@ -5852,7 +5856,7 @@
         <v>39</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>39</v>
@@ -5863,14 +5867,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5889,16 +5893,16 @@
         <v>39</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5936,19 +5940,19 @@
         <v>39</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -5960,7 +5964,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -5972,7 +5976,7 @@
         <v>39</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>39</v>
@@ -5983,10 +5987,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5994,31 +5998,31 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6068,19 +6072,19 @@
         <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -6089,10 +6093,10 @@
         <v>39</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>39</v>
@@ -6103,10 +6107,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6114,38 +6118,38 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>39</v>
@@ -6190,19 +6194,19 @@
         <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -6211,10 +6215,10 @@
         <v>39</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>39</v>
@@ -6225,10 +6229,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6239,7 +6243,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>39</v>
@@ -6248,19 +6252,19 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6310,19 +6314,19 @@
         <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -6331,13 +6335,13 @@
         <v>39</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>39</v>
@@ -6345,10 +6349,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6368,20 +6372,20 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>39</v>
@@ -6430,7 +6434,7 @@
         <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
@@ -6442,22 +6446,22 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>39</v>
@@ -6465,10 +6469,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6476,10 +6480,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>39</v>
@@ -6488,22 +6492,22 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>39</v>
@@ -6540,92 +6544,92 @@
         <v>39</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>39</v>
@@ -6674,45 +6678,45 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6723,7 +6727,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>39</v>
@@ -6735,13 +6739,13 @@
         <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6792,13 +6796,13 @@
         <v>39</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>39</v>
@@ -6816,7 +6820,7 @@
         <v>39</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>39</v>
@@ -6827,14 +6831,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6853,16 +6857,16 @@
         <v>39</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6900,19 +6904,19 @@
         <v>39</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -6924,7 +6928,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -6936,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>39</v>
@@ -6947,10 +6951,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6958,34 +6962,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>39</v>
@@ -7010,11 +7014,11 @@
         <v>39</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>39</v>
@@ -7032,7 +7036,7 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -7044,7 +7048,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -7053,10 +7057,10 @@
         <v>39</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -7067,10 +7071,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7081,7 +7085,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>39</v>
@@ -7093,13 +7097,13 @@
         <v>39</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7150,13 +7154,13 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
@@ -7174,7 +7178,7 @@
         <v>39</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>39</v>
@@ -7185,14 +7189,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7211,16 +7215,16 @@
         <v>39</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7258,19 +7262,19 @@
         <v>39</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
@@ -7282,7 +7286,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -7294,7 +7298,7 @@
         <v>39</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>39</v>
@@ -7305,10 +7309,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7316,34 +7320,34 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>39</v>
@@ -7392,19 +7396,19 @@
         <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -7413,10 +7417,10 @@
         <v>39</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>39</v>
@@ -7427,10 +7431,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7441,7 +7445,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>39</v>
@@ -7450,19 +7454,19 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7512,19 +7516,19 @@
         <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -7533,10 +7537,10 @@
         <v>39</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7547,10 +7551,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7558,32 +7562,32 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>39</v>
@@ -7632,19 +7636,19 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -7653,10 +7657,10 @@
         <v>39</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>39</v>
@@ -7667,10 +7671,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7681,29 +7685,29 @@
         <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>39</v>
@@ -7752,19 +7756,19 @@
         <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -7773,10 +7777,10 @@
         <v>39</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>39</v>
@@ -7787,10 +7791,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7801,7 +7805,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>39</v>
@@ -7810,22 +7814,22 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>39</v>
@@ -7874,19 +7878,19 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -7895,10 +7899,10 @@
         <v>39</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>39</v>
@@ -7909,10 +7913,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7923,7 +7927,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>39</v>
@@ -7932,22 +7936,22 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>39</v>
@@ -7996,19 +8000,19 @@
         <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -8017,10 +8021,10 @@
         <v>39</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>39</v>
@@ -8031,10 +8035,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8045,7 +8049,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
@@ -8057,19 +8061,19 @@
         <v>39</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>39</v>
@@ -8094,13 +8098,13 @@
         <v>39</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>39</v>
@@ -8118,19 +8122,19 @@
         <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -8139,10 +8143,10 @@
         <v>39</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>39</v>
@@ -8153,14 +8157,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8179,19 +8183,19 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>39</v>
@@ -8216,13 +8220,13 @@
         <v>39</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>39</v>
@@ -8240,7 +8244,7 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -8252,33 +8256,33 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8301,19 +8305,19 @@
         <v>39</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>39</v>
@@ -8362,7 +8366,7 @@
         <v>39</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
@@ -8374,7 +8378,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -8383,10 +8387,10 @@
         <v>39</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>39</v>
@@ -8397,10 +8401,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8411,7 +8415,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -8423,16 +8427,16 @@
         <v>39</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8458,13 +8462,13 @@
         <v>39</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>39</v>
@@ -8482,45 +8486,45 @@
         <v>39</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8531,7 +8535,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
@@ -8543,19 +8547,19 @@
         <v>39</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>39</v>
@@ -8580,13 +8584,13 @@
         <v>39</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>39</v>
@@ -8604,19 +8608,19 @@
         <v>39</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -8625,10 +8629,10 @@
         <v>39</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>39</v>
@@ -8639,10 +8643,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8653,7 +8657,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>39</v>
@@ -8665,16 +8669,16 @@
         <v>39</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8724,45 +8728,45 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8773,7 +8777,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
@@ -8785,16 +8789,16 @@
         <v>39</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8844,45 +8848,45 @@
         <v>39</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8905,19 +8909,19 @@
         <v>39</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>39</v>
@@ -8966,7 +8970,7 @@
         <v>39</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -8978,7 +8982,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -8987,10 +8991,10 @@
         <v>39</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>39</v>
@@ -9001,10 +9005,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9015,7 +9019,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>39</v>
@@ -9027,13 +9031,13 @@
         <v>39</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9084,13 +9088,13 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
@@ -9108,7 +9112,7 @@
         <v>39</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>39</v>
@@ -9119,14 +9123,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9145,16 +9149,16 @@
         <v>39</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9204,7 +9208,7 @@
         <v>39</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
@@ -9216,7 +9220,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -9228,7 +9232,7 @@
         <v>39</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>39</v>
@@ -9239,14 +9243,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9259,25 +9263,25 @@
         <v>39</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>39</v>
@@ -9326,7 +9330,7 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
@@ -9338,7 +9342,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -9350,7 +9354,7 @@
         <v>39</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>39</v>
@@ -9361,10 +9365,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9375,7 +9379,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>39</v>
@@ -9387,13 +9391,13 @@
         <v>39</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9444,19 +9448,19 @@
         <v>39</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -9465,10 +9469,10 @@
         <v>39</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>39</v>
@@ -9479,10 +9483,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9493,7 +9497,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>39</v>
@@ -9505,13 +9509,13 @@
         <v>39</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9562,19 +9566,19 @@
         <v>39</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
@@ -9583,10 +9587,10 @@
         <v>39</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>39</v>
@@ -9597,10 +9601,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9611,7 +9615,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>39</v>
@@ -9623,19 +9627,19 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>39</v>
@@ -9660,13 +9664,13 @@
         <v>39</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>39</v>
@@ -9684,31 +9688,31 @@
         <v>39</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>39</v>
@@ -9719,10 +9723,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9745,19 +9749,19 @@
         <v>39</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>39</v>
@@ -9782,13 +9786,13 @@
         <v>39</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>39</v>
@@ -9806,7 +9810,7 @@
         <v>39</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -9818,19 +9822,19 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>39</v>
@@ -9841,10 +9845,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9855,7 +9859,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>39</v>
@@ -9867,17 +9871,17 @@
         <v>39</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>39</v>
@@ -9926,19 +9930,19 @@
         <v>39</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -9950,7 +9954,7 @@
         <v>39</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>39</v>
@@ -9961,10 +9965,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9975,7 +9979,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>39</v>
@@ -9987,13 +9991,13 @@
         <v>39</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10044,19 +10048,19 @@
         <v>39</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
@@ -10065,10 +10069,10 @@
         <v>39</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>39</v>
@@ -10079,10 +10083,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10102,19 +10106,19 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10164,7 +10168,7 @@
         <v>39</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -10176,7 +10180,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -10185,10 +10189,10 @@
         <v>39</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>39</v>
@@ -10199,10 +10203,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10222,19 +10226,19 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10284,7 +10288,7 @@
         <v>39</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
@@ -10296,7 +10300,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -10305,10 +10309,10 @@
         <v>39</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>39</v>
@@ -10319,10 +10323,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10342,22 +10346,22 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>39</v>
@@ -10406,7 +10410,7 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
@@ -10418,7 +10422,7 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
@@ -10427,10 +10431,10 @@
         <v>39</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>39</v>
@@ -10441,10 +10445,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10455,7 +10459,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>39</v>
@@ -10467,13 +10471,13 @@
         <v>39</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10524,13 +10528,13 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
@@ -10548,7 +10552,7 @@
         <v>39</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>39</v>
@@ -10559,14 +10563,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10585,16 +10589,16 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10644,7 +10648,7 @@
         <v>39</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -10656,7 +10660,7 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
@@ -10668,7 +10672,7 @@
         <v>39</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>39</v>
@@ -10679,14 +10683,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10699,25 +10703,25 @@
         <v>39</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>39</v>
@@ -10766,7 +10770,7 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -10778,7 +10782,7 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>39</v>
@@ -10790,7 +10794,7 @@
         <v>39</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>39</v>
@@ -10801,10 +10805,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10812,10 +10816,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>39</v>
@@ -10824,22 +10828,22 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>39</v>
@@ -10864,13 +10868,13 @@
         <v>39</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>39</v>
@@ -10888,34 +10892,34 @@
         <v>39</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>39</v>
@@ -10923,10 +10927,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10937,7 +10941,7 @@
         <v>37</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>39</v>
@@ -10946,22 +10950,22 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>39</v>
@@ -11010,45 +11014,45 @@
         <v>39</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11059,7 +11063,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>39</v>
@@ -11071,19 +11075,19 @@
         <v>39</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>39</v>
@@ -11108,13 +11112,13 @@
         <v>39</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>39</v>
@@ -11132,19 +11136,19 @@
         <v>39</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>39</v>
@@ -11153,10 +11157,10 @@
         <v>39</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>39</v>
@@ -11167,14 +11171,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11193,19 +11197,19 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>39</v>
@@ -11230,13 +11234,13 @@
         <v>39</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>39</v>
@@ -11254,7 +11258,7 @@
         <v>39</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
@@ -11266,33 +11270,33 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11318,16 +11322,16 @@
         <v>40</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>39</v>
@@ -11376,7 +11380,7 @@
         <v>39</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
@@ -11388,7 +11392,7 @@
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>39</v>
@@ -11397,10 +11401,10 @@
         <v>39</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>39</v>
